--- a/biology/Botanique/Bondola/Bondola.xlsx
+++ b/biology/Botanique/Bondola/Bondola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bondola est un cépage suisse de raisins noir.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle provient du sud de la Suisse et est cultivée sur environ 9 ha dans le Tessin au nord du Col du Monte Ceneri.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc.
 Jeunes feuilles duveteuses à plages bronzées.
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque: 15 jours après le chasselas. 
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est cylindrique ou pyramidale. Le cépage est de bonne vigueur mais d'une fertilité irrégulière. Elle est sensible à la pourriture à cause de la pellicule mince.
 Elle donne des vins rouges intense, moyennement alcoolique et avec assez d'acidité. La qualité du vin est inférieur au merlot. La bondola a été remplacée souvent par merlot.
@@ -639,9 +659,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bistershna Zhernina, bistriska crnina, blaustiel blau, bonda, bondoletta, briegler, bundula, chailloche, mohrenkoenig[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bistershna Zhernina, bistriska crnina, blaustiel blau, bonda, bondoletta, briegler, bundula, chailloche, mohrenkoenig.
 Le prié rouge est parfois aussi appelé bonda, d'où quelques confusions.
 </t>
         </is>
